--- a/documents/4. SPRINT/Sprint-1.xlsx
+++ b/documents/4. SPRINT/Sprint-1.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMU\capstone-project\demark\documents\4. SPRINT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6180"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Overview" sheetId="1" r:id="rId3"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,9 +31,6 @@
   </si>
   <si>
     <t>Estimated Point</t>
-  </si>
-  <si>
-    <t>Actual Point</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,17 +86,20 @@
   <si>
     <t>Actual remaining point</t>
   </si>
+  <si>
+    <t>Actual hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -101,7 +109,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,7 +137,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -143,62 +157,74 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -207,7 +233,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -215,35 +241,46 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Sprint 1 - Burndown chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.024910814573696646"/>
+          <c:x val="2.4910814573696646E-2"/>
           <c:y val="0.10071180281616667"/>
-          <c:w val="0.9664559621395016"/>
-          <c:h val="0.774183485712844"/>
+          <c:w val="0.96645596213950158"/>
+          <c:h val="0.77418348571284401"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Overview!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated remaining point</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4472C4"/>
               </a:solidFill>
@@ -254,16 +291,107 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Overview!$E$9:$Q$9</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Overview!$E$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.357142857142861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.071428571428584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.428571428571438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.785714285714292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.214285714285712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.928571428571427</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-673A-46D9-A63E-38D9A3BD0D63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -271,10 +399,16 @@
           <c:tx>
             <c:strRef>
               <c:f>Overview!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remaining point</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="ED7D31"/>
               </a:solidFill>
@@ -285,43 +419,152 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Overview!$E$9:$Q$9</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Overview!$E$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-673A-46D9-A63E-38D9A3BD0D63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="907110448"/>
         <c:axId val="1134760444"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="907110448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1134760444"/>
-      </c:catAx>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1134760444"/>
         <c:scaling>
@@ -338,7 +581,9 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -350,16 +595,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="907110448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -369,6 +617,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -382,21 +631,29 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -405,9 +662,9 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6696075" cy="3371850"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -416,7 +673,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -425,42 +682,303 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.14"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="9.86"/>
-    <col customWidth="1" min="5" max="5" width="11.71"/>
-    <col customWidth="1" min="6" max="6" width="9.43"/>
-    <col customWidth="1" min="7" max="7" width="9.71"/>
-    <col customWidth="1" min="8" max="8" width="9.86"/>
-    <col customWidth="1" min="9" max="9" width="5.0"/>
-    <col customWidth="1" min="10" max="10" width="7.0"/>
-    <col customWidth="1" min="11" max="18" width="5.71"/>
-    <col customWidth="1" min="19" max="19" width="4.86"/>
-    <col customWidth="1" min="20" max="24" width="5.29"/>
-    <col customWidth="1" min="25" max="25" width="9.71"/>
-    <col customWidth="1" min="26" max="26" width="17.71"/>
-    <col customWidth="1" min="27" max="27" width="15.43"/>
-    <col customWidth="1" min="28" max="28" width="12.71"/>
-    <col customWidth="1" min="29" max="29" width="15.71"/>
-    <col customWidth="1" min="30" max="30" width="12.71"/>
-    <col customWidth="1" min="31" max="31" width="12.14"/>
-    <col customWidth="1" min="32" max="32" width="11.86"/>
-    <col customWidth="1" min="33" max="33" width="13.14"/>
-    <col customWidth="1" min="34" max="37" width="8.71"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" customWidth="1"/>
+    <col min="20" max="24" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" customWidth="1"/>
+    <col min="34" max="37" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,16 +992,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -499,309 +1017,309 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E6" si="0">D2-Q12</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E6" si="1">D2-Q12</f>
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="5">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="H2" s="6"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="5">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="H3" s="6"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="H4" s="6"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43367</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43374</v>
+      </c>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D6" s="3">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
-        <v>43367.0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43374.0</v>
-      </c>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13.0</v>
-      </c>
       <c r="E6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="H6" s="6">
-        <v>43376.0</v>
+        <v>43376</v>
       </c>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:E7" si="2">SUM(D2:D6)</f>
+        <f t="shared" ref="D7:E7" si="1">SUM(D2:D6)</f>
         <v>93</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="9" ht="15.0" customHeight="1">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43367</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43368</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43369</v>
+      </c>
+      <c r="H9" s="11">
+        <v>43370</v>
+      </c>
+      <c r="I9" s="11">
+        <v>43371</v>
+      </c>
+      <c r="J9" s="11">
+        <v>43372</v>
+      </c>
+      <c r="K9" s="11">
+        <v>43373</v>
+      </c>
+      <c r="L9" s="11">
+        <v>43374</v>
+      </c>
+      <c r="M9" s="11">
+        <v>43375</v>
+      </c>
+      <c r="N9" s="11">
+        <v>43376</v>
+      </c>
+      <c r="O9" s="11">
+        <v>43377</v>
+      </c>
+      <c r="P9" s="11">
+        <v>43378</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="11">
-        <v>43367.0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>43368.0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>43369.0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>43370.0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>43371.0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>43372.0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>43373.0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>43374.0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>43375.0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>43376.0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>43377.0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>43378.0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>43379.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="D10" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="12">
         <f>E11</f>
         <v>93</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:P10" si="3">E10-($E$10/14)-1</f>
-        <v>85.35714286</v>
+        <f t="shared" ref="F10:P10" si="2">E10-($E$10/14)-1</f>
+        <v>85.357142857142861</v>
       </c>
       <c r="G10" s="12">
+        <f t="shared" si="2"/>
+        <v>77.714285714285722</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="2"/>
+        <v>70.071428571428584</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="2"/>
+        <v>62.428571428571438</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="2"/>
+        <v>54.785714285714292</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="2"/>
+        <v>47.142857142857146</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="2"/>
+        <v>31.857142857142854</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="2"/>
+        <v>24.214285714285712</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="2"/>
+        <v>16.571428571428569</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="2"/>
+        <v>8.928571428571427</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" ref="E11:P11" si="3">SUM(E12:E16)</f>
+        <v>93</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="3"/>
-        <v>77.71428571</v>
-      </c>
-      <c r="H10" s="12">
+        <v>87</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="3"/>
-        <v>70.07142857</v>
-      </c>
-      <c r="I10" s="12">
+        <v>79</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="3"/>
-        <v>62.42857143</v>
-      </c>
-      <c r="J10" s="12">
+        <v>71</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
-        <v>54.78571429</v>
-      </c>
-      <c r="K10" s="12">
+        <v>63</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
-        <v>47.14285714</v>
-      </c>
-      <c r="L10" s="12">
+        <v>56</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="3"/>
-        <v>39.5</v>
-      </c>
-      <c r="M10" s="12">
+        <v>51</v>
+      </c>
+      <c r="L11" s="12">
         <f t="shared" si="3"/>
-        <v>31.85714286</v>
-      </c>
-      <c r="N10" s="12">
+        <v>43</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
-        <v>24.21428571</v>
-      </c>
-      <c r="O10" s="12">
+        <v>38</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="3"/>
-        <v>16.57142857</v>
-      </c>
-      <c r="P10" s="12">
+        <v>33</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="3"/>
-        <v>8.928571429</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="D11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" ref="E11:P11" si="4">SUM(E12:E16)</f>
-        <v>93</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="Q11" s="12">
@@ -809,241 +1327,241 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="str">
-        <f t="shared" ref="D12:D16" si="5">B2</f>
+        <f t="shared" ref="D12:D16" si="4">B2</f>
         <v>Exchange UI Design</v>
       </c>
       <c r="E12" s="15">
-        <f t="shared" ref="E12:E16" si="6">D2</f>
+        <f t="shared" ref="E12:E16" si="5">D2</f>
         <v>21</v>
       </c>
       <c r="F12" s="15">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="15">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H12" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I12" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J12" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K12" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L12" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="M12" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N12" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O12" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P12" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="15">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Smart Contract Design</v>
+      </c>
+      <c r="E13" s="15">
         <f t="shared" si="5"/>
-        <v>Smart Contract Design</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="F13" s="15">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G13" s="15">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H13" s="15">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J13" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K13" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L13" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M13" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N13" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="O13" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P13" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="15">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Architect Design</v>
+      </c>
+      <c r="E14" s="15">
         <f t="shared" si="5"/>
-        <v>Architect Design</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="F14" s="15">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="G14" s="15">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="15">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I14" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J14" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K14" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L14" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="M14" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N14" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O14" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P14" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="15">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.0" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Project Plan</v>
+      </c>
+      <c r="E15" s="15">
         <f t="shared" si="5"/>
-        <v>Project Plan</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="F15" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G15" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H15" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Database Design</v>
+      </c>
+      <c r="E16" s="15">
         <f t="shared" si="5"/>
-        <v>Database Design</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F16" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G16" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H16" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J16" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="45.0" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="11:18" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1053,7 +1571,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1063,7 +1581,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -1071,7 +1589,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -1079,7 +1597,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -1087,7 +1605,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -1095,7 +1613,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -1103,7 +1621,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -1111,7 +1629,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="11:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -1119,7 +1637,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -1127,7 +1645,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
@@ -1135,7 +1653,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -1143,7 +1661,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
@@ -1151,7 +1669,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -1159,7 +1677,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
@@ -1167,7 +1685,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
@@ -1175,7 +1693,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
@@ -1183,7 +1701,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
@@ -1191,7 +1709,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -1199,7 +1717,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
@@ -1207,7 +1725,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
@@ -1215,7 +1733,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
@@ -1223,7 +1741,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -1231,7 +1749,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
@@ -1239,7 +1757,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -1247,7 +1765,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -1255,7 +1773,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
@@ -1263,7 +1781,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
@@ -1271,7 +1789,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
@@ -1279,7 +1797,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
@@ -1287,7 +1805,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
@@ -1295,7 +1813,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
@@ -1303,7 +1821,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -1311,7 +1829,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
@@ -1319,7 +1837,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -1327,7 +1845,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -1335,7 +1853,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
@@ -1343,7 +1861,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
@@ -1351,7 +1869,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
@@ -1359,7 +1877,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
@@ -1367,7 +1885,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
@@ -1375,7 +1893,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
@@ -1383,7 +1901,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
@@ -1391,7 +1909,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
@@ -1399,7 +1917,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
@@ -1407,7 +1925,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
@@ -1415,7 +1933,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
@@ -1423,7 +1941,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
@@ -1431,7 +1949,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -1439,7 +1957,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
@@ -1447,7 +1965,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
@@ -1455,7 +1973,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
@@ -1463,7 +1981,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
@@ -1471,7 +1989,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
@@ -1479,7 +1997,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
@@ -1487,7 +2005,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
@@ -1495,7 +2013,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
@@ -1503,7 +2021,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
@@ -1511,7 +2029,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
@@ -1519,7 +2037,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
@@ -1527,7 +2045,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
@@ -1535,7 +2053,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
@@ -1543,7 +2061,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
@@ -1551,7 +2069,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
@@ -1559,7 +2077,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
@@ -1567,7 +2085,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
@@ -1575,7 +2093,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
@@ -1583,7 +2101,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
@@ -1591,7 +2109,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
@@ -1599,7 +2117,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
@@ -1607,7 +2125,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
       <c r="O94" s="16"/>
@@ -1615,7 +2133,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
@@ -1623,7 +2141,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16"/>
@@ -1631,7 +2149,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
@@ -1639,7 +2157,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
       <c r="O98" s="16"/>
@@ -1647,7 +2165,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
       <c r="O99" s="16"/>
@@ -1655,7 +2173,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
@@ -1663,7 +2181,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
       <c r="O101" s="16"/>
@@ -1671,7 +2189,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
       <c r="O102" s="16"/>
@@ -1679,7 +2197,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
       <c r="O103" s="16"/>
@@ -1687,7 +2205,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
       <c r="O104" s="16"/>
@@ -1695,7 +2213,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
       <c r="O105" s="16"/>
@@ -1703,7 +2221,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
       <c r="O106" s="16"/>
@@ -1711,7 +2229,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
       <c r="O107" s="16"/>
@@ -1719,7 +2237,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
       <c r="O108" s="16"/>
@@ -1727,7 +2245,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
       <c r="O109" s="16"/>
@@ -1735,7 +2253,7 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
       <c r="O110" s="16"/>
@@ -1743,7 +2261,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
       <c r="O111" s="16"/>
@@ -1751,7 +2269,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
       <c r="O112" s="16"/>
@@ -1759,7 +2277,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
       <c r="O113" s="16"/>
@@ -1767,7 +2285,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
       <c r="O114" s="16"/>
@@ -1775,7 +2293,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
       <c r="O115" s="16"/>
@@ -1783,7 +2301,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
       <c r="O116" s="16"/>
@@ -1791,7 +2309,7 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
       <c r="O117" s="16"/>
@@ -1799,7 +2317,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
       <c r="O118" s="16"/>
@@ -1807,7 +2325,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
       <c r="O119" s="16"/>
@@ -1815,7 +2333,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
       <c r="O120" s="16"/>
@@ -1823,7 +2341,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
       <c r="O121" s="16"/>
@@ -1831,7 +2349,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
       <c r="O122" s="16"/>
@@ -1839,7 +2357,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
       <c r="O123" s="16"/>
@@ -1847,7 +2365,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
       <c r="O124" s="16"/>
@@ -1855,7 +2373,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
       <c r="O125" s="16"/>
@@ -1863,7 +2381,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
       <c r="O126" s="16"/>
@@ -1871,7 +2389,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
       <c r="O127" s="16"/>
@@ -1879,7 +2397,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
       <c r="O128" s="16"/>
@@ -1887,7 +2405,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
       <c r="O129" s="16"/>
@@ -1895,7 +2413,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
       <c r="O130" s="16"/>
@@ -1903,7 +2421,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
       <c r="O131" s="16"/>
@@ -1911,7 +2429,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
       <c r="O132" s="16"/>
@@ -1919,7 +2437,7 @@
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
       <c r="O133" s="16"/>
@@ -1927,7 +2445,7 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
       <c r="O134" s="16"/>
@@ -1935,7 +2453,7 @@
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
       <c r="O135" s="16"/>
@@ -1943,7 +2461,7 @@
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
       <c r="O136" s="16"/>
@@ -1951,7 +2469,7 @@
       <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
       <c r="O137" s="16"/>
@@ -1959,7 +2477,7 @@
       <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
       <c r="O138" s="16"/>
@@ -1967,7 +2485,7 @@
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
       <c r="O139" s="16"/>
@@ -1975,7 +2493,7 @@
       <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
       <c r="O140" s="16"/>
@@ -1983,7 +2501,7 @@
       <c r="Q140" s="7"/>
       <c r="R140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
       <c r="O141" s="16"/>
@@ -1991,7 +2509,7 @@
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
       <c r="O142" s="16"/>
@@ -1999,7 +2517,7 @@
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
       <c r="O143" s="16"/>
@@ -2007,7 +2525,7 @@
       <c r="Q143" s="7"/>
       <c r="R143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
       <c r="O144" s="16"/>
@@ -2015,7 +2533,7 @@
       <c r="Q144" s="7"/>
       <c r="R144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
       <c r="O145" s="16"/>
@@ -2023,7 +2541,7 @@
       <c r="Q145" s="7"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
       <c r="O146" s="16"/>
@@ -2031,7 +2549,7 @@
       <c r="Q146" s="7"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
       <c r="O147" s="16"/>
@@ -2039,7 +2557,7 @@
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
       <c r="O148" s="16"/>
@@ -2047,7 +2565,7 @@
       <c r="Q148" s="7"/>
       <c r="R148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
       <c r="O149" s="16"/>
@@ -2055,7 +2573,7 @@
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
       <c r="O150" s="16"/>
@@ -2063,7 +2581,7 @@
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
       <c r="O151" s="16"/>
@@ -2071,7 +2589,7 @@
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
       <c r="O152" s="16"/>
@@ -2079,7 +2597,7 @@
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
       <c r="O153" s="16"/>
@@ -2087,7 +2605,7 @@
       <c r="Q153" s="7"/>
       <c r="R153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
       <c r="O154" s="16"/>
@@ -2095,7 +2613,7 @@
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
       <c r="O155" s="16"/>
@@ -2103,7 +2621,7 @@
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M156" s="16"/>
       <c r="N156" s="16"/>
       <c r="O156" s="16"/>
@@ -2111,7 +2629,7 @@
       <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M157" s="16"/>
       <c r="N157" s="16"/>
       <c r="O157" s="16"/>
@@ -2119,7 +2637,7 @@
       <c r="Q157" s="7"/>
       <c r="R157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M158" s="16"/>
       <c r="N158" s="16"/>
       <c r="O158" s="16"/>
@@ -2127,7 +2645,7 @@
       <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M159" s="16"/>
       <c r="N159" s="16"/>
       <c r="O159" s="16"/>
@@ -2135,7 +2653,7 @@
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
       <c r="O160" s="16"/>
@@ -2143,7 +2661,7 @@
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
       <c r="O161" s="16"/>
@@ -2151,7 +2669,7 @@
       <c r="Q161" s="7"/>
       <c r="R161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M162" s="16"/>
       <c r="N162" s="16"/>
       <c r="O162" s="16"/>
@@ -2159,7 +2677,7 @@
       <c r="Q162" s="7"/>
       <c r="R162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
       <c r="O163" s="16"/>
@@ -2167,7 +2685,7 @@
       <c r="Q163" s="7"/>
       <c r="R163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M164" s="16"/>
       <c r="N164" s="16"/>
       <c r="O164" s="16"/>
@@ -2175,7 +2693,7 @@
       <c r="Q164" s="7"/>
       <c r="R164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
       <c r="O165" s="16"/>
@@ -2183,7 +2701,7 @@
       <c r="Q165" s="7"/>
       <c r="R165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
       <c r="O166" s="16"/>
@@ -2191,7 +2709,7 @@
       <c r="Q166" s="7"/>
       <c r="R166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M167" s="16"/>
       <c r="N167" s="16"/>
       <c r="O167" s="16"/>
@@ -2199,7 +2717,7 @@
       <c r="Q167" s="7"/>
       <c r="R167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
       <c r="O168" s="16"/>
@@ -2207,7 +2725,7 @@
       <c r="Q168" s="7"/>
       <c r="R168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
       <c r="O169" s="16"/>
@@ -2215,7 +2733,7 @@
       <c r="Q169" s="7"/>
       <c r="R169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
       <c r="O170" s="16"/>
@@ -2223,7 +2741,7 @@
       <c r="Q170" s="7"/>
       <c r="R170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
       <c r="O171" s="16"/>
@@ -2231,7 +2749,7 @@
       <c r="Q171" s="7"/>
       <c r="R171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
       <c r="O172" s="16"/>
@@ -2239,7 +2757,7 @@
       <c r="Q172" s="7"/>
       <c r="R172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M173" s="16"/>
       <c r="N173" s="16"/>
       <c r="O173" s="16"/>
@@ -2247,7 +2765,7 @@
       <c r="Q173" s="7"/>
       <c r="R173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M174" s="16"/>
       <c r="N174" s="16"/>
       <c r="O174" s="16"/>
@@ -2255,7 +2773,7 @@
       <c r="Q174" s="7"/>
       <c r="R174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
       <c r="O175" s="16"/>
@@ -2263,7 +2781,7 @@
       <c r="Q175" s="7"/>
       <c r="R175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M176" s="16"/>
       <c r="N176" s="16"/>
       <c r="O176" s="16"/>
@@ -2271,7 +2789,7 @@
       <c r="Q176" s="7"/>
       <c r="R176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
       <c r="O177" s="16"/>
@@ -2279,7 +2797,7 @@
       <c r="Q177" s="7"/>
       <c r="R177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
       <c r="O178" s="16"/>
@@ -2287,7 +2805,7 @@
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
       <c r="O179" s="16"/>
@@ -2295,7 +2813,7 @@
       <c r="Q179" s="7"/>
       <c r="R179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
       <c r="O180" s="16"/>
@@ -2303,7 +2821,7 @@
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
       <c r="O181" s="16"/>
@@ -2311,7 +2829,7 @@
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
       <c r="O182" s="16"/>
@@ -2319,7 +2837,7 @@
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
       <c r="O183" s="16"/>
@@ -2327,7 +2845,7 @@
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
       <c r="O184" s="16"/>
@@ -2335,7 +2853,7 @@
       <c r="Q184" s="7"/>
       <c r="R184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
       <c r="O185" s="16"/>
@@ -2343,7 +2861,7 @@
       <c r="Q185" s="7"/>
       <c r="R185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M186" s="16"/>
       <c r="N186" s="16"/>
       <c r="O186" s="16"/>
@@ -2351,7 +2869,7 @@
       <c r="Q186" s="7"/>
       <c r="R186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M187" s="16"/>
       <c r="N187" s="16"/>
       <c r="O187" s="16"/>
@@ -2359,7 +2877,7 @@
       <c r="Q187" s="7"/>
       <c r="R187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M188" s="16"/>
       <c r="N188" s="16"/>
       <c r="O188" s="16"/>
@@ -2367,7 +2885,7 @@
       <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
       <c r="O189" s="16"/>
@@ -2375,7 +2893,7 @@
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M190" s="16"/>
       <c r="N190" s="16"/>
       <c r="O190" s="16"/>
@@ -2383,7 +2901,7 @@
       <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M191" s="16"/>
       <c r="N191" s="16"/>
       <c r="O191" s="16"/>
@@ -2391,7 +2909,7 @@
       <c r="Q191" s="7"/>
       <c r="R191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M192" s="16"/>
       <c r="N192" s="16"/>
       <c r="O192" s="16"/>
@@ -2399,7 +2917,7 @@
       <c r="Q192" s="7"/>
       <c r="R192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
       <c r="O193" s="16"/>
@@ -2407,7 +2925,7 @@
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
       <c r="O194" s="16"/>
@@ -2415,7 +2933,7 @@
       <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
       <c r="O195" s="16"/>
@@ -2423,7 +2941,7 @@
       <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
       <c r="O196" s="16"/>
@@ -2431,7 +2949,7 @@
       <c r="Q196" s="7"/>
       <c r="R196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
       <c r="O197" s="16"/>
@@ -2439,7 +2957,7 @@
       <c r="Q197" s="7"/>
       <c r="R197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M198" s="16"/>
       <c r="N198" s="16"/>
       <c r="O198" s="16"/>
@@ -2447,7 +2965,7 @@
       <c r="Q198" s="7"/>
       <c r="R198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
       <c r="O199" s="16"/>
@@ -2455,7 +2973,7 @@
       <c r="Q199" s="7"/>
       <c r="R199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="16"/>
       <c r="N200" s="16"/>
       <c r="O200" s="16"/>
@@ -2463,7 +2981,7 @@
       <c r="Q200" s="7"/>
       <c r="R200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M201" s="16"/>
       <c r="N201" s="16"/>
       <c r="O201" s="16"/>
@@ -2471,7 +2989,7 @@
       <c r="Q201" s="7"/>
       <c r="R201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M202" s="16"/>
       <c r="N202" s="16"/>
       <c r="O202" s="16"/>
@@ -2479,7 +2997,7 @@
       <c r="Q202" s="7"/>
       <c r="R202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M203" s="16"/>
       <c r="N203" s="16"/>
       <c r="O203" s="16"/>
@@ -2487,7 +3005,7 @@
       <c r="Q203" s="7"/>
       <c r="R203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M204" s="16"/>
       <c r="N204" s="16"/>
       <c r="O204" s="16"/>
@@ -2495,7 +3013,7 @@
       <c r="Q204" s="7"/>
       <c r="R204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M205" s="16"/>
       <c r="N205" s="16"/>
       <c r="O205" s="16"/>
@@ -2503,7 +3021,7 @@
       <c r="Q205" s="7"/>
       <c r="R205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M206" s="16"/>
       <c r="N206" s="16"/>
       <c r="O206" s="16"/>
@@ -2511,7 +3029,7 @@
       <c r="Q206" s="7"/>
       <c r="R206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M207" s="16"/>
       <c r="N207" s="16"/>
       <c r="O207" s="16"/>
@@ -2519,7 +3037,7 @@
       <c r="Q207" s="7"/>
       <c r="R207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M208" s="16"/>
       <c r="N208" s="16"/>
       <c r="O208" s="16"/>
@@ -2527,7 +3045,7 @@
       <c r="Q208" s="7"/>
       <c r="R208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M209" s="16"/>
       <c r="N209" s="16"/>
       <c r="O209" s="16"/>
@@ -2535,7 +3053,7 @@
       <c r="Q209" s="7"/>
       <c r="R209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M210" s="16"/>
       <c r="N210" s="16"/>
       <c r="O210" s="16"/>
@@ -2543,7 +3061,7 @@
       <c r="Q210" s="7"/>
       <c r="R210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M211" s="16"/>
       <c r="N211" s="16"/>
       <c r="O211" s="16"/>
@@ -2551,7 +3069,7 @@
       <c r="Q211" s="7"/>
       <c r="R211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M212" s="16"/>
       <c r="N212" s="16"/>
       <c r="O212" s="16"/>
@@ -2559,7 +3077,7 @@
       <c r="Q212" s="7"/>
       <c r="R212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M213" s="16"/>
       <c r="N213" s="16"/>
       <c r="O213" s="16"/>
@@ -2567,7 +3085,7 @@
       <c r="Q213" s="7"/>
       <c r="R213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M214" s="16"/>
       <c r="N214" s="16"/>
       <c r="O214" s="16"/>
@@ -2575,7 +3093,7 @@
       <c r="Q214" s="7"/>
       <c r="R214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M215" s="16"/>
       <c r="N215" s="16"/>
       <c r="O215" s="16"/>
@@ -2583,7 +3101,7 @@
       <c r="Q215" s="7"/>
       <c r="R215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M216" s="16"/>
       <c r="N216" s="16"/>
       <c r="O216" s="16"/>
@@ -2591,7 +3109,7 @@
       <c r="Q216" s="7"/>
       <c r="R216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M217" s="16"/>
       <c r="N217" s="16"/>
       <c r="O217" s="16"/>
@@ -2599,7 +3117,7 @@
       <c r="Q217" s="7"/>
       <c r="R217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M218" s="16"/>
       <c r="N218" s="16"/>
       <c r="O218" s="16"/>
@@ -2607,7 +3125,7 @@
       <c r="Q218" s="7"/>
       <c r="R218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M219" s="16"/>
       <c r="N219" s="16"/>
       <c r="O219" s="16"/>
@@ -2615,7 +3133,7 @@
       <c r="Q219" s="7"/>
       <c r="R219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M220" s="16"/>
       <c r="N220" s="16"/>
       <c r="O220" s="16"/>
@@ -2623,789 +3141,788 @@
       <c r="Q220" s="7"/>
       <c r="R220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="13:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
